--- a/docs/PlanDeTrabajo_.xlsx
+++ b/docs/PlanDeTrabajo_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauricia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FDDD56-F950-2E4A-8FE5-5677C7ECB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC02A12-9F17-A74F-AD2C-CF093C23EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="3060" windowWidth="28060" windowHeight="17440" xr2:uid="{DD6C0B1D-9EBC-4D4B-91E0-1BEAAD4F6059}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28060" windowHeight="17440" xr2:uid="{DD6C0B1D-9EBC-4D4B-91E0-1BEAAD4F6059}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanDeTrabajo" sheetId="1" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CE9111-4DE8-1D4A-B41A-7131162E508C}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
